--- a/数据整理/stocks/A股/创业板/300075-数字政通.xlsx
+++ b/数据整理/stocks/A股/创业板/300075-数字政通.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>98.82</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.99</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -530,15 +550,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>98.82</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.99</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -553,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +602,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +642,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>33.50</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.67</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -630,17 +678,21 @@
           <t>创金合信汇悦一年定期开放混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>33.50</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.67</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300075-数字政通.xlsx
+++ b/数据整理/stocks/A股/创业板/300075-数字政通.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -678,7 +679,6 @@
           <t>创金合信汇悦一年定期开放混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>33.50</t>
@@ -694,6 +694,74 @@
       </c>
       <c r="H3" t="n">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.14</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300075-数字政通.xlsx
+++ b/数据整理/stocks/A股/创业板/300075-数字政通.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,7 +708,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,17 +719,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -738,14 +759,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.11</v>
+          <t>002236</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成中证360互联网+大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -754,13 +797,309 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512780</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证京津冀协同发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003359</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成中证360互联网+大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300075-数字政通.xlsx
+++ b/数据整理/stocks/A股/创业板/300075-数字政通.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1030,7 +1031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1041,17 +1042,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1061,14 +1082,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1077,14 +1120,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.11</v>
+          <t>512780</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证京津冀协同发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1093,13 +1158,135 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300075-数字政通.xlsx
+++ b/数据整理/stocks/A股/创业板/300075-数字政通.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,127 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009768</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>创金合信汇悦一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1444</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009769</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>创金合信汇悦一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.14</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -584,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -635,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009768</t>
+          <t>164811</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>创金合信汇悦一年定期开放混合A</t>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>33.50</t>
+          <t>94.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1141</t>
+          <t>0.0096</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -673,29 +643,74 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009769</t>
+          <t>512780</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信汇悦一年定期开放混合C</t>
+          <t>广发中证京津冀协同发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>33.50</t>
+          <t>98.52</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1031,7 +1046,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1052,7 +1067,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1082,36 +1097,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>164811</t>
+          <t>009768</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+          <t>创金合信汇悦一年定期开放混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>33.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0096</t>
+          <t>0.1141</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1120,74 +1135,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>512780</t>
+          <t>009769</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发中证京津冀协同发展主题ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.13</t>
+          <t>创金合信汇悦一年定期开放混合C</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.52</t>
+          <t>33.50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>164825</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1201,96 +1171,126 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
+          <t>009768</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信汇悦一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.14</v>
+          <t>009769</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信汇悦一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300075-数字政通.xlsx
+++ b/数据整理/stocks/A股/创业板/300075-数字政通.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -605,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>164811</t>
+          <t>010116</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+          <t>民生加银新兴产业混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>85.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0096</t>
+          <t>0.2845</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -643,36 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>512780</t>
+          <t>010117</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发中证京津冀协同发展主题ETF</t>
+          <t>民生加银新兴产业混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.52</t>
+          <t>85.62</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0043</t>
+          <t>0.0309</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -681,36 +698,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>164825</t>
+          <t>001252</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+          <t>中海进取收益灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>36.60</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0025</t>
+          <t>0.0079</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -719,6 +736,176 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512780</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证京津冀协同发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1040,7 +1227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1165,7 +1352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
